--- a/Data/H&S - POS+INV- March 2020.xlsx
+++ b/Data/H&S - POS+INV- March 2020.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\4월 업무\특이사항\sitime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA8CE4B-6DC6-4CE3-A89F-F6442F8F0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20685" windowHeight="5595" activeTab="1"/>
+    <workbookView xWindow="270" yWindow="-19470" windowWidth="17280" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Iventory" sheetId="1" r:id="rId1"/>
-    <sheet name="POS" sheetId="2" r:id="rId2"/>
+    <sheet name="POS" sheetId="2" r:id="rId1"/>
+    <sheet name="Iventory" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Iventory!$A$4:$F$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">POS!$A$1:$O$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iventory!$A$1:$F$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">POS!$A$1:$O$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LG</author>
   </authors>
   <commentList>
-    <comment ref="G42" authorId="0" shapeId="0">
+    <comment ref="G42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,11 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="279">
-  <si>
-    <t>SiTime Inventory Format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="277">
   <si>
     <t>Distributor</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,9 +81,6 @@
   <si>
     <t>Lot #</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Month</t>
   </si>
   <si>
     <t>Distributor</t>
@@ -999,30 +993,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="16">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.00000_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="178" formatCode="\$#,##0.00;\-\$#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="\$#,##0.000;\-\$#,##0.000"/>
-    <numFmt numFmtId="180" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="mm&quot;/&quot;dd&quot;/&quot;yy;@"/>
-    <numFmt numFmtId="183" formatCode="_-[$₩-412]* #,##0.000_-;\-[$₩-412]* #,##0.000_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="m&quot;/&quot;d&quot;/&quot;yy;@"/>
-    <numFmt numFmtId="186" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-    <numFmt numFmtId="187" formatCode="_-\$* #,##0.0000_ ;_-\$* \-#,##0.0000\ ;_-\$* &quot;-&quot;????_ ;_-@_ "/>
-    <numFmt numFmtId="188" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="189" formatCode="\$#,##0.0000_);[Red]\(\$#,##0.0000\)"/>
-    <numFmt numFmtId="190" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="15">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.00;\-\$#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="\$#,##0.000;\-\$#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-409]* #,##0.000_ ;_-[$$-409]* \-#,##0.000\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="170" formatCode="mm&quot;/&quot;dd&quot;/&quot;yy;@"/>
+    <numFmt numFmtId="171" formatCode="_-[$₩-412]* #,##0.000_-;\-[$₩-412]* #,##0.000_-;_-[$₩-412]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="172" formatCode="m&quot;/&quot;d&quot;/&quot;yy;@"/>
+    <numFmt numFmtId="173" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="174" formatCode="_-\$* #,##0.0000_ ;_-\$* \-#,##0.0000\ ;_-\$* &quot;-&quot;????_ ;_-@_ "/>
+    <numFmt numFmtId="175" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="176" formatCode="\$#,##0.0000_);[Red]\(\$#,##0.0000\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1033,7 +1026,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1078,7 +1071,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1087,7 +1080,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1095,7 +1088,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1103,13 +1096,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1148,7 +1141,7 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1312,10 +1305,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1329,18 +1322,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1364,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,13 +1373,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,22 +1409,22 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1449,10 +1442,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1461,13 +1454,13 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,7 +1469,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1521,10 +1514,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1545,79 +1538,79 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 4" xfId="4"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="쉼표 [0] 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1633,7 +1626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1708,6 +1701,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1743,6 +1753,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1918,346 +1945,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="27.625" customWidth="1"/>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1"/>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1900</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="E5" s="14">
-        <v>43263</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="14">
-        <v>43263</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="13">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="E6" s="14">
-        <v>43294</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14">
-        <v>43294</v>
-      </c>
-      <c r="H6" s="15">
-        <v>18070704</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="H23" s="9"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:F17"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E96" sqref="A96:XFD118"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9"/>
   <cols>
     <col min="1" max="3" width="10" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26171875" style="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.62890625" style="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1015625" style="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.3671875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.734375" style="99" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="15.75" style="33" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="13.89453125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="15.734375" style="33" customWidth="1"/>
+    <col min="12" max="12" width="12.62890625" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.89453125" style="33" customWidth="1"/>
     <col min="14" max="14" width="15" style="33" customWidth="1"/>
-    <col min="15" max="15" width="10.25" style="33" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.125" style="20"/>
+    <col min="15" max="15" width="10.26171875" style="33" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1015625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" ht="40.5">
+    <row r="1" spans="1:15" s="33" customFormat="1" ht="38.700000000000003">
       <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="F1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="J1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="H1" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="58" t="s">
+      <c r="M1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="79">
         <v>3000</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="21">
         <v>0.26</v>
@@ -2266,43 +2044,43 @@
         <v>0.22</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" s="19">
         <v>28420</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M2" s="32"/>
       <c r="N2" s="32">
         <v>19016928</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A3" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="79">
         <v>20</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G3" s="21">
         <v>0</v>
@@ -2311,43 +2089,43 @@
         <v>0</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="32">
         <v>30639</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A4" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="79">
         <v>10</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4" s="21">
         <v>0</v>
@@ -2356,43 +2134,43 @@
         <v>0</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="25">
         <v>30636</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A5" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="79">
         <v>9000</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="21">
         <v>0.75</v>
@@ -2401,43 +2179,43 @@
         <v>0.6</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="32">
         <v>26735</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M5" s="32"/>
       <c r="N5" s="32">
         <v>19017291</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A6" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="80">
         <v>1000</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G6" s="41">
         <v>3</v>
@@ -2446,43 +2224,43 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M6" s="32"/>
       <c r="N6" s="32">
         <v>19027638</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A7" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="80">
         <v>3000</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="24">
         <v>0.26</v>
@@ -2491,43 +2269,43 @@
         <v>0.22</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="32">
         <v>27453</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="32">
         <v>19027640</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A8" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="80">
         <v>6000</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G8" s="24">
         <v>0.75</v>
@@ -2536,43 +2314,43 @@
         <v>0.6</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K8" s="32">
         <v>26735</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="32">
         <v>19027681</v>
       </c>
       <c r="O8" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A9" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="80">
         <v>5000</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" s="41">
         <v>0.38</v>
@@ -2581,43 +2359,43 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9" s="32">
         <v>31230</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="32">
         <v>19038462</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A10" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E10" s="80">
         <v>6000</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="41">
         <v>0.26</v>
@@ -2626,43 +2404,43 @@
         <v>0.22</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10" s="32">
         <v>27716</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="32">
         <v>19038514</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A11" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="80">
         <v>5000</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="41">
         <v>0.38</v>
@@ -2671,43 +2449,43 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K11" s="32">
         <v>31230</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="25">
         <v>19038537</v>
       </c>
       <c r="O11" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="61" customFormat="1" ht="16.5" hidden="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="61" customFormat="1" ht="14.4" hidden="1">
       <c r="A12" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="79">
         <v>21000</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G12" s="41">
         <v>0.26</v>
@@ -2716,43 +2494,43 @@
         <v>0.22</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12" s="32">
         <v>27716</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32">
         <v>19038720</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="61" customFormat="1" ht="16.5" hidden="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="61" customFormat="1" ht="14.4" hidden="1">
       <c r="A13" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" s="79">
         <v>1000</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="41">
         <v>2</v>
@@ -2761,43 +2539,43 @@
         <v>1.665</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K13" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M13" s="32"/>
       <c r="N13" s="32">
         <v>19038817</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A14" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="79">
         <v>2000</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="41">
         <v>0.26</v>
@@ -2806,43 +2584,43 @@
         <v>0.22</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14" s="32">
         <v>29290</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M14" s="32"/>
       <c r="N14" s="32">
         <v>19038836</v>
       </c>
       <c r="O14" s="25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A15" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="79">
         <v>3000</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G15" s="41">
         <v>0.26</v>
@@ -2851,43 +2629,43 @@
         <v>0.22</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K15" s="32">
         <v>26535</v>
       </c>
       <c r="L15" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M15" s="32"/>
       <c r="N15" s="32">
         <v>19039440</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A16" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="79">
         <v>9000</v>
       </c>
       <c r="F16" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G16" s="41">
         <v>0.26</v>
@@ -2896,37 +2674,37 @@
         <v>0.22</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K16" s="32">
         <v>27716</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="32">
         <v>19049629</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A17" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E17" s="81">
         <v>3000</v>
@@ -2941,37 +2719,37 @@
         <v>0.22</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K17" s="25">
         <v>27716</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="25">
         <v>9041114</v>
       </c>
       <c r="O17" s="54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A18" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E18" s="81">
         <v>3000</v>
@@ -2986,37 +2764,37 @@
         <v>0.22</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K18" s="35">
         <v>28420</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="25">
         <v>19040295</v>
       </c>
       <c r="O18" s="54" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A19" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="81">
         <v>21000</v>
@@ -3031,37 +2809,37 @@
         <v>0.22</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K19" s="32">
         <v>26535</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M19" s="18"/>
       <c r="N19" s="25">
         <v>19040296</v>
       </c>
       <c r="O19" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A20" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="81">
         <v>6000</v>
@@ -3076,37 +2854,37 @@
         <v>0.22</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K20" s="32">
         <v>26535</v>
       </c>
       <c r="L20" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M20" s="18"/>
       <c r="N20" s="25">
         <v>19040297</v>
       </c>
       <c r="O20" s="54" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A21" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="82">
         <v>15000</v>
@@ -3121,37 +2899,37 @@
         <v>0.6</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K21" s="32">
         <v>31148</v>
       </c>
       <c r="L21" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="25">
         <v>19050737</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A22" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="82">
         <v>20</v>
@@ -3166,37 +2944,37 @@
         <v>0</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K22" s="32">
         <v>31814</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O22" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A23" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="82">
         <v>3000</v>
@@ -3211,37 +2989,37 @@
         <v>0.6</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K23" s="32">
         <v>31148</v>
       </c>
       <c r="L23" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="25">
         <v>19050735</v>
       </c>
       <c r="O23" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A24" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E24" s="82">
         <v>21000</v>
@@ -3256,37 +3034,37 @@
         <v>0.22</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K24" s="25">
         <v>27716</v>
       </c>
       <c r="L24" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="25">
         <v>19061431</v>
       </c>
       <c r="O24" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A25" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E25" s="82">
         <v>6000</v>
@@ -3301,37 +3079,37 @@
         <v>0.22</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K25" s="25">
         <v>27716</v>
       </c>
       <c r="L25" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="25">
         <v>19061429</v>
       </c>
       <c r="O25" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A26" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" s="82">
         <v>6000</v>
@@ -3346,37 +3124,37 @@
         <v>0.22</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K26" s="25">
         <v>27716</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="25">
         <v>19061432</v>
       </c>
       <c r="O26" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A27" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="82">
         <v>3000</v>
@@ -3391,37 +3169,37 @@
         <v>0.22</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K27" s="32">
         <v>29290</v>
       </c>
       <c r="L27" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="25">
         <v>19061430</v>
       </c>
       <c r="O27" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A28" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E28" s="83">
         <v>21000</v>
@@ -3436,37 +3214,37 @@
         <v>0.22</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K28" s="25">
         <v>27716</v>
       </c>
       <c r="L28" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="25">
         <v>19061431</v>
       </c>
       <c r="O28" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A29" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E29" s="83">
         <v>6000</v>
@@ -3481,37 +3259,37 @@
         <v>0.22</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K29" s="25">
         <v>27716</v>
       </c>
       <c r="L29" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="25">
         <v>19061429</v>
       </c>
       <c r="O29" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A30" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E30" s="83">
         <v>6000</v>
@@ -3526,37 +3304,37 @@
         <v>0.22</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K30" s="25">
         <v>27716</v>
       </c>
       <c r="L30" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="25">
         <v>19061432</v>
       </c>
       <c r="O30" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A31" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E31" s="83">
         <v>3000</v>
@@ -3571,37 +3349,37 @@
         <v>0.22</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K31" s="25">
         <v>30788</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M31" s="32"/>
       <c r="N31" s="25">
         <v>19061430</v>
       </c>
       <c r="O31" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A32" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E32" s="83">
         <v>20</v>
@@ -3616,37 +3394,37 @@
         <v>0</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K32" s="25">
         <v>32433</v>
       </c>
       <c r="L32" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="33" customFormat="1" ht="15" hidden="1">
+      <c r="A33" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="40" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="33" customFormat="1" hidden="1">
-      <c r="A33" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>102</v>
       </c>
       <c r="E33" s="82">
         <v>1000</v>
@@ -3661,37 +3439,37 @@
         <v>0.22</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J33" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K33" s="29">
         <v>28205</v>
       </c>
       <c r="L33" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M33" s="32"/>
       <c r="N33" s="25">
         <v>19072680</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="33" customFormat="1" hidden="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="33" customFormat="1" ht="15" hidden="1">
       <c r="A34" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34" s="82">
         <v>1000</v>
@@ -3706,37 +3484,37 @@
         <v>0.22</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J34" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K34" s="29">
         <v>28205</v>
       </c>
       <c r="L34" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="25">
         <v>19072678</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="33" customFormat="1" hidden="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="33" customFormat="1" ht="15" hidden="1">
       <c r="A35" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E35" s="82">
         <v>1000</v>
@@ -3751,37 +3529,37 @@
         <v>0.22</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J35" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K35" s="29">
         <v>32428</v>
       </c>
       <c r="L35" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M35" s="32"/>
       <c r="N35" s="25">
         <v>19072681</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="33" customFormat="1" hidden="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="33" customFormat="1" ht="15" hidden="1">
       <c r="A36" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E36" s="82">
         <v>1000</v>
@@ -3796,37 +3574,37 @@
         <v>0.22</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K36" s="29">
         <v>32428</v>
       </c>
       <c r="L36" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M36" s="32"/>
       <c r="N36" s="25">
         <v>19072679</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A37" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" s="82">
         <v>1000</v>
@@ -3841,37 +3619,37 @@
         <v>0.22</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K37" s="30">
         <v>29290</v>
       </c>
       <c r="L37" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M37" s="32"/>
       <c r="N37" s="25">
         <v>19072690</v>
       </c>
       <c r="O37" s="38" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="33" customFormat="1" hidden="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="33" customFormat="1" ht="15" hidden="1">
       <c r="A38" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="82">
         <v>18000</v>
@@ -3886,37 +3664,37 @@
         <v>0.22</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K38" s="29">
         <v>27716</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="25">
         <v>19072689</v>
       </c>
       <c r="O38" s="38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A39" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E39" s="82">
         <v>3000</v>
@@ -3931,37 +3709,37 @@
         <v>0.22</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K39" s="32">
         <v>32404</v>
       </c>
       <c r="L39" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="25">
         <v>19072675</v>
       </c>
       <c r="O39" s="38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E40" s="82">
         <v>3000</v>
@@ -3976,37 +3754,37 @@
         <v>0.22</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K40" s="32">
         <v>32404</v>
       </c>
       <c r="L40" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M40" s="32"/>
       <c r="N40" s="25">
         <v>19072676</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A41" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E41" s="82">
         <v>3000</v>
@@ -4021,37 +3799,37 @@
         <v>0.22</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K41" s="32">
         <v>32404</v>
       </c>
       <c r="L41" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M41" s="32"/>
       <c r="N41" s="25">
         <v>19072677</v>
       </c>
       <c r="O41" s="38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="33" customFormat="1" ht="54" hidden="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="33" customFormat="1" ht="51.6" hidden="1">
       <c r="A42" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" s="82">
         <v>3000</v>
@@ -4066,37 +3844,37 @@
         <v>0.25</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K42" s="55">
         <v>29392</v>
       </c>
       <c r="L42" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M42" s="32"/>
       <c r="N42" s="25">
         <v>19073263</v>
       </c>
       <c r="O42" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E43" s="82">
         <v>1000</v>
@@ -4111,37 +3889,37 @@
         <v>0.22</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K43" s="25">
         <v>28205</v>
       </c>
       <c r="L43" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M43" s="32"/>
       <c r="N43" s="32">
         <v>19083694</v>
       </c>
       <c r="O43" s="38" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A44" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E44" s="82">
         <v>1000</v>
@@ -4156,37 +3934,37 @@
         <v>0.22</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K44" s="25">
         <v>28205</v>
       </c>
       <c r="L44" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M44" s="32"/>
       <c r="N44" s="32">
         <v>19083693</v>
       </c>
       <c r="O44" s="38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A45" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E45" s="82">
         <v>3000</v>
@@ -4201,37 +3979,37 @@
         <v>0.22</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K45" s="25">
         <v>29290</v>
       </c>
       <c r="L45" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M45" s="32"/>
       <c r="N45" s="32">
         <v>19083692</v>
       </c>
       <c r="O45" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A46" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E46" s="82">
         <v>3000</v>
@@ -4246,37 +4024,37 @@
         <v>0.22</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K46" s="25">
         <v>32428</v>
       </c>
       <c r="L46" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M46" s="32"/>
       <c r="N46" s="32">
         <v>19083691</v>
       </c>
       <c r="O46" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A47" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E47" s="82">
         <v>3000</v>
@@ -4291,37 +4069,37 @@
         <v>0.22</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K47" s="25">
         <v>32428</v>
       </c>
       <c r="L47" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M47" s="32"/>
       <c r="N47" s="32">
         <v>19083695</v>
       </c>
       <c r="O47" s="38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="62" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A48" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E48" s="84">
         <v>39000</v>
@@ -4336,37 +4114,37 @@
         <v>0.22</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J48" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K48" s="35">
         <v>27716</v>
       </c>
       <c r="L48" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M48" s="35"/>
       <c r="N48" s="35">
         <v>19095577</v>
       </c>
       <c r="O48" s="38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1">
       <c r="A49" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E49" s="82">
         <v>6000</v>
@@ -4381,37 +4159,37 @@
         <v>0.22</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K49" s="32">
         <v>33044</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M49" s="32"/>
       <c r="N49" s="25">
         <v>19094646</v>
       </c>
       <c r="O49" s="38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A50" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E50" s="82">
         <v>3000</v>
@@ -4426,37 +4204,37 @@
         <v>0.22</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K50" s="42">
         <v>28205</v>
       </c>
       <c r="L50" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M50" s="32"/>
       <c r="N50" s="25">
         <v>19095576</v>
       </c>
       <c r="O50" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A51" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E51" s="82">
         <v>3000</v>
@@ -4471,37 +4249,37 @@
         <v>0.22</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K51" s="42">
         <v>32428</v>
       </c>
       <c r="L51" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M51" s="32"/>
       <c r="N51" s="25">
         <v>19095574</v>
       </c>
       <c r="O51" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A52" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E52" s="82">
         <v>3000</v>
@@ -4516,37 +4294,37 @@
         <v>0.22</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K52" s="42">
         <v>32428</v>
       </c>
       <c r="L52" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M52" s="32"/>
       <c r="N52" s="25">
         <v>19095572</v>
       </c>
       <c r="O52" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A53" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E53" s="82">
         <v>3000</v>
@@ -4561,37 +4339,37 @@
         <v>0.22</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K53" s="42">
         <v>28205</v>
       </c>
       <c r="L53" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="25">
         <v>19095575</v>
       </c>
       <c r="O53" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="33" customFormat="1" ht="12.75" hidden="1" customHeight="1" thickBot="1">
       <c r="A54" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E54" s="82">
         <v>3000</v>
@@ -4606,37 +4384,37 @@
         <v>0.22</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K54" s="42">
         <v>28205</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M54" s="32"/>
       <c r="N54" s="25">
         <v>19095654</v>
       </c>
       <c r="O54" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="33" customFormat="1" hidden="1">
       <c r="A55" s="44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E55" s="85">
         <v>3000</v>
@@ -4651,37 +4429,37 @@
         <v>0.22</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K55" s="49">
         <v>28420</v>
       </c>
       <c r="L55" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M55" s="32"/>
       <c r="N55" s="25">
         <v>19095573</v>
       </c>
       <c r="O55" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="33" customFormat="1" hidden="1">
       <c r="A56" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E56" s="82">
         <v>1000</v>
@@ -4696,37 +4474,37 @@
         <v>1.665</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K56" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="L56" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="L56" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="M56" s="32"/>
       <c r="N56" s="33">
         <v>19106289</v>
       </c>
       <c r="O56" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="33" customFormat="1" hidden="1">
       <c r="A57" s="44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E57" s="82">
         <v>30000</v>
@@ -4741,37 +4519,37 @@
         <v>0.22</v>
       </c>
       <c r="I57" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K57" s="50">
         <v>27716</v>
       </c>
       <c r="L57" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M57" s="32"/>
       <c r="N57" s="25">
         <v>19106681</v>
       </c>
       <c r="O57" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A58" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E58" s="82">
         <v>3000</v>
@@ -4786,23 +4564,23 @@
         <v>0.41</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K58" s="50">
         <v>28207</v>
       </c>
       <c r="L58" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M58" s="32"/>
       <c r="N58" s="25">
         <v>19117418</v>
       </c>
       <c r="O58" s="38" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P58" s="51"/>
       <c r="Q58" s="33"/>
@@ -4810,16 +4588,16 @@
     </row>
     <row r="59" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A59" s="44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B59" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="40" t="s">
         <v>160</v>
-      </c>
-      <c r="C59" s="44" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="40" t="s">
-        <v>162</v>
       </c>
       <c r="E59" s="82">
         <v>1000</v>
@@ -4834,23 +4612,23 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I59" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J59" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K59" s="50">
         <v>34150</v>
       </c>
       <c r="L59" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M59" s="32"/>
       <c r="N59" s="25">
         <v>19117789</v>
       </c>
       <c r="O59" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P59" s="33"/>
       <c r="Q59" s="33"/>
@@ -4858,16 +4636,16 @@
     </row>
     <row r="60" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A60" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E60" s="83">
         <v>9000</v>
@@ -4882,23 +4660,23 @@
         <v>0.6</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K60" s="50">
         <v>31148</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M60" s="32"/>
       <c r="N60" s="25">
         <v>19118058</v>
       </c>
       <c r="O60" s="38" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P60" s="62"/>
       <c r="Q60" s="33"/>
@@ -4906,16 +4684,16 @@
     </row>
     <row r="61" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A61" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E61" s="83">
         <v>1000</v>
@@ -4930,23 +4708,23 @@
         <v>1.665</v>
       </c>
       <c r="I61" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J61" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K61" s="50" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L61" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M61" s="32"/>
       <c r="N61" s="25">
         <v>19128963</v>
       </c>
       <c r="O61" s="38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P61" s="33"/>
       <c r="Q61" s="33"/>
@@ -4954,16 +4732,16 @@
     </row>
     <row r="62" spans="1:18" hidden="1">
       <c r="A62" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E62" s="83">
         <v>4000</v>
@@ -4978,37 +4756,37 @@
         <v>1.409</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K62" s="50">
         <v>34312</v>
       </c>
       <c r="L62" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M62" s="32"/>
       <c r="N62" s="25">
         <v>19129353</v>
       </c>
       <c r="O62" s="38" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:18" hidden="1">
       <c r="A63" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E63" s="83">
         <v>15000</v>
@@ -5023,37 +4801,37 @@
         <v>0.22</v>
       </c>
       <c r="I63" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J63" s="44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K63" s="50">
         <v>27716</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M63" s="32"/>
       <c r="N63" s="25">
         <v>19128495</v>
       </c>
       <c r="O63" s="38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:18" hidden="1">
       <c r="A64" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="82">
         <v>30000</v>
@@ -5068,37 +4846,37 @@
         <v>0.22</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J64" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K64" s="50">
         <v>27716</v>
       </c>
       <c r="L64" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M64" s="32"/>
       <c r="N64" s="25">
         <v>20019723</v>
       </c>
       <c r="O64" s="38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:18" hidden="1">
       <c r="A65" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E65" s="82">
         <v>1000</v>
@@ -5113,37 +4891,37 @@
         <v>0.22</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J65" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K65" s="50">
         <v>32428</v>
       </c>
       <c r="L65" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M65" s="32"/>
       <c r="N65" s="25">
         <v>20010202</v>
       </c>
       <c r="O65" s="38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:18" hidden="1">
       <c r="A66" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E66" s="82">
         <v>1000</v>
@@ -5158,37 +4936,37 @@
         <v>0.22</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J66" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K66" s="50">
         <v>32428</v>
       </c>
       <c r="L66" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M66" s="32"/>
       <c r="N66" s="25">
         <v>20010201</v>
       </c>
       <c r="O66" s="38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:18" hidden="1">
       <c r="A67" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E67" s="82">
         <v>1000</v>
@@ -5203,37 +4981,37 @@
         <v>0.22</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J67" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K67" s="50">
         <v>29290</v>
       </c>
       <c r="L67" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M67" s="32"/>
       <c r="N67" s="25">
         <v>20019724</v>
       </c>
       <c r="O67" s="38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="38.700000000000003" hidden="1">
+      <c r="A68" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="65" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="40.5" hidden="1">
-      <c r="A68" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B68" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" s="65" t="s">
-        <v>183</v>
       </c>
       <c r="E68" s="82">
         <v>1000</v>
@@ -5248,37 +5026,37 @@
         <v>1.06</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J68" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K68" s="50">
         <v>33630</v>
       </c>
       <c r="L68" s="64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M68" s="32"/>
       <c r="N68" s="25">
         <v>20010041</v>
       </c>
       <c r="O68" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:18" hidden="1">
       <c r="A69" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69" s="82">
         <v>3000</v>
@@ -5293,37 +5071,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J69" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K69" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L69" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M69" s="32"/>
       <c r="N69" s="25">
         <v>20010203</v>
       </c>
       <c r="O69" s="38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:18" hidden="1">
       <c r="A70" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E70" s="82">
         <v>3000</v>
@@ -5338,37 +5116,37 @@
         <v>0.22</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J70" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K70" s="50">
         <v>28420</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M70" s="32"/>
       <c r="N70" s="25">
         <v>20010190</v>
       </c>
       <c r="O70" s="38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:18" hidden="1">
       <c r="A71" s="44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E71" s="82">
         <v>1000</v>
@@ -5383,37 +5161,37 @@
         <v>0.22</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J71" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K71" s="50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M71" s="32"/>
       <c r="N71" s="25">
         <v>20010188</v>
       </c>
       <c r="O71" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:18" hidden="1">
       <c r="A72" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E72" s="82">
         <v>2000</v>
@@ -5428,37 +5206,37 @@
         <v>0.22</v>
       </c>
       <c r="I72" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J72" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K72" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L72" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M72" s="32"/>
       <c r="N72" s="25">
         <v>20010192</v>
       </c>
       <c r="O72" s="38" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:18" hidden="1">
       <c r="A73" s="44" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E73" s="82">
         <v>1000</v>
@@ -5473,37 +5251,37 @@
         <v>0.22</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J73" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K73" s="50">
         <v>32428</v>
       </c>
       <c r="L73" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M73" s="32"/>
       <c r="N73" s="25">
         <v>20010191</v>
       </c>
       <c r="O73" s="38" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:18" hidden="1">
       <c r="A74" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E74" s="82">
         <v>4000</v>
@@ -5518,37 +5296,37 @@
         <v>0.22</v>
       </c>
       <c r="I74" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J74" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K74" s="50">
         <v>29290</v>
       </c>
       <c r="L74" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M74" s="32"/>
       <c r="N74" s="25">
         <v>20010189</v>
       </c>
       <c r="O74" s="38" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" spans="1:18" hidden="1">
       <c r="A75" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E75" s="82">
         <v>12000</v>
@@ -5563,37 +5341,37 @@
         <v>0.22</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J75" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K75" s="50">
         <v>33044</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M75" s="32"/>
       <c r="N75" s="25">
         <v>20010194</v>
       </c>
       <c r="O75" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="1:18" hidden="1">
       <c r="A76" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76" s="82">
         <v>3000</v>
@@ -5608,37 +5386,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I76" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J76" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K76" s="50">
         <v>34150</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M76" s="32"/>
       <c r="N76" s="25">
         <v>20010195</v>
       </c>
       <c r="O76" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:18" hidden="1">
       <c r="A77" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E77" s="82">
         <v>1000</v>
@@ -5653,37 +5431,37 @@
         <v>0.22</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J77" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K77" s="50">
         <v>29290</v>
       </c>
       <c r="L77" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M77" s="32"/>
       <c r="N77" s="25">
         <v>20010196</v>
       </c>
       <c r="O77" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:18" hidden="1">
       <c r="A78" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E78" s="82">
         <v>1000</v>
@@ -5698,37 +5476,37 @@
         <v>0.22</v>
       </c>
       <c r="I78" s="44" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J78" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K78" s="50">
         <v>29290</v>
       </c>
       <c r="L78" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M78" s="32"/>
       <c r="N78" s="25">
         <v>20010197</v>
       </c>
       <c r="O78" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="23" customFormat="1" hidden="1">
       <c r="A79" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E79" s="82">
         <v>3000</v>
@@ -5743,23 +5521,23 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="I79" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J79" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K79" s="50">
         <v>34721</v>
       </c>
       <c r="L79" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M79" s="32"/>
       <c r="N79" s="25">
         <v>20010198</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P79" s="33"/>
       <c r="Q79" s="33"/>
@@ -5767,16 +5545,16 @@
     </row>
     <row r="80" spans="1:18" hidden="1">
       <c r="A80" s="34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E80" s="82">
         <v>3000</v>
@@ -5791,37 +5569,37 @@
         <v>0.36799999999999999</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J80" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K80" s="50">
         <v>34721</v>
       </c>
       <c r="L80" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="25">
         <v>20010199</v>
       </c>
       <c r="O80" s="38" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:15" hidden="1">
       <c r="A81" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E81" s="82">
         <v>3000</v>
@@ -5836,37 +5614,37 @@
         <v>0.51100000000000001</v>
       </c>
       <c r="I81" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J81" s="66" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K81" s="50">
         <v>34721</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M81" s="32"/>
       <c r="N81" s="25">
         <v>20010200</v>
       </c>
       <c r="O81" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:15" hidden="1">
       <c r="A82" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E82" s="82">
         <v>90000</v>
@@ -5881,37 +5659,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J82" s="66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K82" s="50">
         <v>34150</v>
       </c>
       <c r="L82" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M82" s="32"/>
       <c r="N82" s="25">
         <v>20010193</v>
       </c>
       <c r="O82" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A83" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E83" s="83">
         <v>6000</v>
@@ -5926,37 +5704,37 @@
         <v>0.6</v>
       </c>
       <c r="I83" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J83" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K83" s="50">
         <v>31148</v>
       </c>
       <c r="L83" s="28" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M83" s="32"/>
       <c r="N83" s="25">
         <v>20020496</v>
       </c>
       <c r="O83" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A84" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D84" s="77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E84" s="83">
         <v>1000</v>
@@ -5971,37 +5749,37 @@
         <v>0.22</v>
       </c>
       <c r="I84" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J84" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K84" s="50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L84" s="28" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M84" s="32"/>
       <c r="N84" s="25">
         <v>20020802</v>
       </c>
       <c r="O84" s="38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A85" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E85" s="83">
         <v>15000</v>
@@ -6016,37 +5794,37 @@
         <v>0.22</v>
       </c>
       <c r="I85" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J85" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K85" s="50">
         <v>29290</v>
       </c>
       <c r="L85" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M85" s="32"/>
       <c r="N85" s="25">
         <v>20020914</v>
       </c>
       <c r="O85" s="38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A86" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E86" s="83">
         <v>1000</v>
@@ -6061,37 +5839,37 @@
         <v>0.22</v>
       </c>
       <c r="I86" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J86" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K86" s="50">
         <v>28205</v>
       </c>
       <c r="L86" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M86" s="32"/>
       <c r="N86" s="25">
         <v>20020915</v>
       </c>
       <c r="O86" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A87" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E87" s="83">
         <v>2000</v>
@@ -6106,37 +5884,37 @@
         <v>0.22</v>
       </c>
       <c r="I87" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J87" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K87" s="50">
         <v>28205</v>
       </c>
       <c r="L87" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M87" s="32"/>
       <c r="N87" s="25">
         <v>20020917</v>
       </c>
       <c r="O87" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A88" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E88" s="83">
         <v>1000</v>
@@ -6151,37 +5929,37 @@
         <v>0.22</v>
       </c>
       <c r="I88" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J88" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K88" s="50">
         <v>32428</v>
       </c>
       <c r="L88" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M88" s="32"/>
       <c r="N88" s="25">
         <v>20020916</v>
       </c>
       <c r="O88" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A89" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D89" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E89" s="83">
         <v>3000</v>
@@ -6196,37 +5974,37 @@
         <v>0.22</v>
       </c>
       <c r="I89" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J89" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K89" s="50">
         <v>32428</v>
       </c>
       <c r="L89" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M89" s="32"/>
       <c r="N89" s="25">
         <v>20020923</v>
       </c>
       <c r="O89" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A90" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E90" s="83">
         <v>1000</v>
@@ -6241,37 +6019,37 @@
         <v>0.22</v>
       </c>
       <c r="I90" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J90" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K90" s="50">
         <v>32428</v>
       </c>
       <c r="L90" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M90" s="32"/>
       <c r="N90" s="25">
         <v>20020922</v>
       </c>
       <c r="O90" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A91" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E91" s="83">
         <v>2000</v>
@@ -6286,37 +6064,37 @@
         <v>0.22</v>
       </c>
       <c r="I91" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J91" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K91" s="50">
         <v>32428</v>
       </c>
       <c r="L91" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M91" s="32"/>
       <c r="N91" s="25">
         <v>20020921</v>
       </c>
       <c r="O91" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A92" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C92" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D92" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E92" s="83">
         <v>3000</v>
@@ -6331,37 +6109,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I92" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J92" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K92" s="50">
         <v>34150</v>
       </c>
       <c r="L92" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M92" s="32"/>
       <c r="N92" s="25">
         <v>20020918</v>
       </c>
       <c r="O92" s="38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A93" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C93" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E93" s="83">
         <v>3000</v>
@@ -6376,37 +6154,37 @@
         <v>0.22</v>
       </c>
       <c r="I93" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J93" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K93" s="50">
         <v>26535</v>
       </c>
       <c r="L93" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M93" s="32"/>
       <c r="N93" s="25">
         <v>20020919</v>
       </c>
       <c r="O93" s="38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A94" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C94" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D94" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E94" s="83">
         <v>3000</v>
@@ -6421,37 +6199,37 @@
         <v>0.22</v>
       </c>
       <c r="I94" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J94" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K94" s="50">
         <v>26535</v>
       </c>
       <c r="L94" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M94" s="32"/>
       <c r="N94" s="25">
         <v>20020920</v>
       </c>
       <c r="O94" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="33" customFormat="1" hidden="1">
       <c r="A95" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D95" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E95" s="83">
         <v>9000</v>
@@ -6466,37 +6244,37 @@
         <v>0.22</v>
       </c>
       <c r="I95" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J95" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K95" s="50">
         <v>26535</v>
       </c>
       <c r="L95" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M95" s="32"/>
       <c r="N95" s="25">
         <v>20021114</v>
       </c>
       <c r="O95" s="38" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="33" customFormat="1">
       <c r="A96" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B96" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C96" s="44" t="s">
+        <v>260</v>
+      </c>
+      <c r="D96" s="40" t="s">
         <v>261</v>
-      </c>
-      <c r="C96" s="44" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="40" t="s">
-        <v>263</v>
       </c>
       <c r="E96" s="83">
         <v>2000</v>
@@ -6511,37 +6289,37 @@
         <v>0.22</v>
       </c>
       <c r="I96" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J96" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K96" s="50">
         <v>28205</v>
       </c>
       <c r="L96" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M96" s="32"/>
       <c r="N96" s="100">
         <v>20021423</v>
       </c>
       <c r="O96" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:15" s="33" customFormat="1">
       <c r="A97" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C97" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D97" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E97" s="83">
         <v>2000</v>
@@ -6556,37 +6334,37 @@
         <v>0.22</v>
       </c>
       <c r="I97" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J97" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K97" s="50">
         <v>28205</v>
       </c>
       <c r="L97" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M97" s="32"/>
       <c r="N97" s="100">
         <v>20021422</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98" spans="1:15" s="33" customFormat="1">
       <c r="A98" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C98" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="D98" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="D98" s="40" t="s">
-        <v>268</v>
       </c>
       <c r="E98" s="83">
         <v>2000</v>
@@ -6601,37 +6379,37 @@
         <v>0.22</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J98" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K98" s="50">
         <v>32428</v>
       </c>
       <c r="L98" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M98" s="32"/>
       <c r="N98" s="100">
         <v>20021420</v>
       </c>
       <c r="O98" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="99" spans="1:15" s="33" customFormat="1">
       <c r="A99" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C99" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D99" s="40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E99" s="83">
         <v>2000</v>
@@ -6646,37 +6424,37 @@
         <v>0.22</v>
       </c>
       <c r="I99" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J99" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K99" s="50">
         <v>32428</v>
       </c>
       <c r="L99" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M99" s="32"/>
       <c r="N99" s="100">
         <v>20021419</v>
       </c>
       <c r="O99" s="38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:15" s="33" customFormat="1">
       <c r="A100" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C100" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D100" s="40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E100" s="83">
         <v>2000</v>
@@ -6691,37 +6469,37 @@
         <v>0.22</v>
       </c>
       <c r="I100" s="44" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J100" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K100" s="50">
         <v>32428</v>
       </c>
       <c r="L100" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M100" s="32"/>
       <c r="N100" s="100">
         <v>20021418</v>
       </c>
       <c r="O100" s="38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:15" s="33" customFormat="1">
       <c r="A101" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C101" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D101" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E101" s="83">
         <v>2000</v>
@@ -6736,37 +6514,37 @@
         <v>0.22</v>
       </c>
       <c r="I101" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J101" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K101" s="50">
         <v>32428</v>
       </c>
       <c r="L101" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M101" s="32"/>
       <c r="N101" s="100">
         <v>20021417</v>
       </c>
       <c r="O101" s="38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:15" s="33" customFormat="1">
       <c r="A102" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C102" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D102" s="40" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E102" s="83">
         <v>12000</v>
@@ -6781,37 +6559,37 @@
         <v>0.22</v>
       </c>
       <c r="I102" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J102" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K102" s="50">
         <v>29290</v>
       </c>
       <c r="L102" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M102" s="32"/>
       <c r="N102" s="100">
         <v>20021415</v>
       </c>
       <c r="O102" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="103" spans="1:15" s="33" customFormat="1">
       <c r="A103" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C103" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D103" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E103" s="83">
         <v>1000</v>
@@ -6826,37 +6604,37 @@
         <v>0.22</v>
       </c>
       <c r="I103" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J103" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K103" s="50">
         <v>29290</v>
       </c>
       <c r="L103" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M103" s="32"/>
       <c r="N103" s="100">
         <v>20021414</v>
       </c>
       <c r="O103" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:15" s="33" customFormat="1">
       <c r="A104" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C104" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D104" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E104" s="83">
         <v>3000</v>
@@ -6871,37 +6649,37 @@
         <v>0.22</v>
       </c>
       <c r="I104" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J104" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K104" s="50" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L104" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M104" s="32"/>
       <c r="N104" s="100">
         <v>20021421</v>
       </c>
       <c r="O104" s="38" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:15" s="33" customFormat="1">
       <c r="A105" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C105" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D105" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E105" s="83">
         <v>3000</v>
@@ -6916,37 +6694,37 @@
         <v>0.22</v>
       </c>
       <c r="I105" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J105" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K105" s="50">
         <v>27453</v>
       </c>
       <c r="L105" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M105" s="32"/>
       <c r="N105" s="100">
         <v>20021424</v>
       </c>
       <c r="O105" s="38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:15" s="33" customFormat="1">
       <c r="A106" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C106" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D106" s="40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E106" s="83">
         <v>9000</v>
@@ -6961,37 +6739,37 @@
         <v>0.22</v>
       </c>
       <c r="I106" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J106" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K106" s="50">
         <v>28205</v>
       </c>
       <c r="L106" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M106" s="32"/>
       <c r="N106" s="100">
         <v>20032204</v>
       </c>
       <c r="O106" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:15" s="33" customFormat="1">
       <c r="A107" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D107" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E107" s="83">
         <v>12000</v>
@@ -7006,37 +6784,37 @@
         <v>0.22</v>
       </c>
       <c r="I107" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J107" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K107" s="50">
         <v>32428</v>
       </c>
       <c r="L107" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M107" s="32"/>
       <c r="N107" s="100">
         <v>20032203</v>
       </c>
       <c r="O107" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:15" s="33" customFormat="1">
       <c r="A108" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C108" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E108" s="83">
         <v>9000</v>
@@ -7051,37 +6829,37 @@
         <v>0.22</v>
       </c>
       <c r="I108" s="66" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J108" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K108" s="50">
         <v>32428</v>
       </c>
       <c r="L108" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M108" s="32"/>
       <c r="N108" s="100">
         <v>20032202</v>
       </c>
       <c r="O108" s="38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:15" s="33" customFormat="1">
       <c r="A109" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C109" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E109" s="83">
         <v>30000</v>
@@ -7096,37 +6874,37 @@
         <v>0.22</v>
       </c>
       <c r="I109" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J109" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K109" s="50">
         <v>28420</v>
       </c>
       <c r="L109" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M109" s="32"/>
       <c r="N109" s="100">
         <v>20032201</v>
       </c>
       <c r="O109" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:15" s="33" customFormat="1">
       <c r="A110" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C110" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E110" s="83">
         <v>4000</v>
@@ -7141,37 +6919,37 @@
         <v>0.22</v>
       </c>
       <c r="I110" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J110" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K110" s="50">
         <v>32404</v>
       </c>
       <c r="L110" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M110" s="32"/>
       <c r="N110" s="100">
         <v>20032200</v>
       </c>
       <c r="O110" s="38" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:15" s="33" customFormat="1">
       <c r="A111" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C111" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E111" s="83">
         <v>60000</v>
@@ -7186,37 +6964,37 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="I111" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J111" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K111" s="50">
         <v>34150</v>
       </c>
       <c r="L111" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="M111" s="32"/>
       <c r="N111" s="100">
         <v>20032199</v>
       </c>
       <c r="O111" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:15" s="33" customFormat="1">
       <c r="A112" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C112" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E112" s="83">
         <v>15000</v>
@@ -7231,37 +7009,37 @@
         <v>0.22</v>
       </c>
       <c r="I112" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J112" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K112" s="50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L112" s="28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M112" s="32"/>
       <c r="N112" s="100">
         <v>20021416</v>
       </c>
       <c r="O112" s="38" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:15" s="33" customFormat="1">
       <c r="A113" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C113" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E113" s="83">
         <v>4000</v>
@@ -7276,37 +7054,37 @@
         <v>0.22</v>
       </c>
       <c r="I113" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J113" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K113" s="50">
         <v>29290</v>
       </c>
       <c r="L113" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M113" s="32"/>
       <c r="N113" s="100">
         <v>20032198</v>
       </c>
       <c r="O113" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="114" spans="1:15" s="33" customFormat="1">
       <c r="A114" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C114" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E114" s="83">
         <v>3000</v>
@@ -7321,37 +7099,37 @@
         <v>0.22</v>
       </c>
       <c r="I114" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J114" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K114" s="50">
         <v>27453</v>
       </c>
       <c r="L114" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M114" s="32"/>
       <c r="N114" s="100">
         <v>20032197</v>
       </c>
       <c r="O114" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:15" s="33" customFormat="1">
       <c r="A115" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C115" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E115" s="83">
         <v>6000</v>
@@ -7366,37 +7144,37 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="I115" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J115" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K115" s="50">
         <v>35158</v>
       </c>
       <c r="L115" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M115" s="32"/>
       <c r="N115" s="100">
         <v>20032167</v>
       </c>
       <c r="O115" s="38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:15" s="33" customFormat="1">
       <c r="A116" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C116" s="44" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E116" s="83">
         <v>4000</v>
@@ -7411,37 +7189,37 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="I116" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J116" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K116" s="50">
         <v>35158</v>
       </c>
       <c r="L116" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M116" s="32"/>
       <c r="N116" s="100">
         <v>20032205</v>
       </c>
       <c r="O116" s="38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:15" s="33" customFormat="1">
       <c r="A117" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C117" s="44" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D117" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E117" s="83">
         <v>12000</v>
@@ -7456,37 +7234,37 @@
         <v>0.22</v>
       </c>
       <c r="I117" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J117" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K117" s="50">
         <v>26535</v>
       </c>
       <c r="L117" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M117" s="32"/>
       <c r="N117" s="100">
         <v>20032206</v>
       </c>
       <c r="O117" s="38" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:15" s="33" customFormat="1">
       <c r="A118" s="63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C118" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D118" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E118" s="83">
         <v>3000</v>
@@ -7501,23 +7279,23 @@
         <v>0.22</v>
       </c>
       <c r="I118" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J118" s="66" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K118" s="50">
         <v>26535</v>
       </c>
       <c r="L118" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M118" s="32"/>
       <c r="N118" s="100">
         <v>20032196</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:15" s="33" customFormat="1">
@@ -7895,11 +7673,245 @@
       <c r="O140" s="76"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O118"/>
+  <autoFilter ref="A1:O118" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="27.62890625" customWidth="1"/>
+    <col min="2" max="2" width="24.734375" customWidth="1"/>
+    <col min="3" max="3" width="20.3671875" customWidth="1"/>
+    <col min="4" max="4" width="16.1015625" customWidth="1"/>
+    <col min="5" max="5" width="24.62890625" customWidth="1"/>
+    <col min="6" max="6" width="17.734375" customWidth="1"/>
+    <col min="7" max="7" width="14.26171875" customWidth="1"/>
+    <col min="8" max="8" width="17.3671875" customWidth="1"/>
+    <col min="9" max="9" width="14.3671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="21" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="13">
+        <v>1900</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="E2" s="14">
+        <v>43263</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="14">
+        <v>43263</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>43294</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="14">
+        <v>43294</v>
+      </c>
+      <c r="H3" s="15">
+        <v>18070704</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="20" spans="8:8" ht="21" customHeight="1">
+      <c r="H20" s="9"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8142,13 +8154,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3939CA38-31EB-424D-983F-75EE35E33F2D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3939CA38-31EB-424D-983F-75EE35E33F2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="84533548-6a3c-44ad-8013-e8e6b4295ee4"/>
+    <ds:schemaRef ds:uri="9c0d39b0-f853-46d0-be1c-b75ead6e7377"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00BD5BF6-E782-4179-BE7A-55D4A6ACC2B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00BD5BF6-E782-4179-BE7A-55D4A6ACC2B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C94EF192-AD68-42FD-ABC5-0F3625735A4C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C94EF192-AD68-42FD-ABC5-0F3625735A4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>